--- a/UAE/uae_individual.xlsx
+++ b/UAE/uae_individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelancing\PROJECT(Saad faizan)\customer requirments\New Files\UAE Lists\Master File\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\freelancing\PROJECT(Saad faizan)\customer requirments\Files-Github\Scrapping_Files\UAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9151FA-BFFB-460F-8028-8640E01EF3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D57AB6-63A2-4A39-ACAA-90C50BD5ABF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14B4BC60-B359-4843-BC88-1D6C14A43AAB}"/>
   </bookViews>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
